--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Gpr151</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.02765612217533</v>
+        <v>4.926742666666667</v>
       </c>
       <c r="H2">
-        <v>3.02765612217533</v>
+        <v>14.780228</v>
       </c>
       <c r="I2">
-        <v>0.6381946528363051</v>
+        <v>0.666446655488151</v>
       </c>
       <c r="J2">
-        <v>0.6381946528363051</v>
+        <v>0.6664466554881509</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.526599208976535</v>
+        <v>0.5470743333333333</v>
       </c>
       <c r="N2">
-        <v>0.526599208976535</v>
+        <v>1.641223</v>
       </c>
       <c r="O2">
-        <v>0.4257615839495164</v>
+        <v>0.4209445985475409</v>
       </c>
       <c r="P2">
-        <v>0.4257615839495164</v>
+        <v>0.4209445985475409</v>
       </c>
       <c r="Q2">
-        <v>1.594361318990492</v>
+        <v>2.695294459871556</v>
       </c>
       <c r="R2">
-        <v>1.594361318990492</v>
+        <v>24.257650138844</v>
       </c>
       <c r="S2">
-        <v>0.271718766259697</v>
+        <v>0.280537119847811</v>
       </c>
       <c r="T2">
-        <v>0.271718766259697</v>
+        <v>0.2805371198478109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.02765612217533</v>
+        <v>4.926742666666667</v>
       </c>
       <c r="H3">
-        <v>3.02765612217533</v>
+        <v>14.780228</v>
       </c>
       <c r="I3">
-        <v>0.6381946528363051</v>
+        <v>0.666446655488151</v>
       </c>
       <c r="J3">
-        <v>0.6381946528363051</v>
+        <v>0.6664466554881509</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.481834128240151</v>
+        <v>0.4983106666666666</v>
       </c>
       <c r="N3">
-        <v>0.481834128240151</v>
+        <v>1.494932</v>
       </c>
       <c r="O3">
-        <v>0.3895684956290967</v>
+        <v>0.3834235509713624</v>
       </c>
       <c r="P3">
-        <v>0.3895684956290967</v>
+        <v>0.3834235509713624</v>
       </c>
       <c r="Q3">
-        <v>1.458828048239306</v>
+        <v>2.455048422721778</v>
       </c>
       <c r="R3">
-        <v>1.458828048239306</v>
+        <v>22.095435804496</v>
       </c>
       <c r="S3">
-        <v>0.248620530823973</v>
+        <v>0.2555313431802551</v>
       </c>
       <c r="T3">
-        <v>0.248620530823973</v>
+        <v>0.2555313431802551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.02765612217533</v>
+        <v>4.926742666666667</v>
       </c>
       <c r="H4">
-        <v>3.02765612217533</v>
+        <v>14.780228</v>
       </c>
       <c r="I4">
-        <v>0.6381946528363051</v>
+        <v>0.666446655488151</v>
       </c>
       <c r="J4">
-        <v>0.6381946528363051</v>
+        <v>0.6664466554881509</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.228407253452892</v>
+        <v>0.25425</v>
       </c>
       <c r="N4">
-        <v>0.228407253452892</v>
+        <v>0.76275</v>
       </c>
       <c r="O4">
-        <v>0.1846699204213868</v>
+        <v>0.1956318504810966</v>
       </c>
       <c r="P4">
-        <v>0.1846699204213868</v>
+        <v>0.1956318504810966</v>
       </c>
       <c r="Q4">
-        <v>0.6915386192659008</v>
+        <v>1.252624323</v>
       </c>
       <c r="R4">
-        <v>0.6915386192659008</v>
+        <v>11.273618907</v>
       </c>
       <c r="S4">
-        <v>0.117855355752635</v>
+        <v>0.1303781924600849</v>
       </c>
       <c r="T4">
-        <v>0.117855355752635</v>
+        <v>0.1303781924600848</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.71643897282371</v>
+        <v>0.48067</v>
       </c>
       <c r="H5">
-        <v>1.71643897282371</v>
+        <v>1.44201</v>
       </c>
       <c r="I5">
-        <v>0.3618053471636949</v>
+        <v>0.06502083335118163</v>
       </c>
       <c r="J5">
-        <v>0.3618053471636949</v>
+        <v>0.06502083335118163</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.526599208976535</v>
+        <v>0.5470743333333333</v>
       </c>
       <c r="N5">
-        <v>0.526599208976535</v>
+        <v>1.641223</v>
       </c>
       <c r="O5">
-        <v>0.4257615839495164</v>
+        <v>0.4209445985475409</v>
       </c>
       <c r="P5">
-        <v>0.4257615839495164</v>
+        <v>0.4209445985475409</v>
       </c>
       <c r="Q5">
-        <v>0.903875405345462</v>
+        <v>0.2629622198033333</v>
       </c>
       <c r="R5">
-        <v>0.903875405345462</v>
+        <v>2.36665997823</v>
       </c>
       <c r="S5">
-        <v>0.1540428176898194</v>
+        <v>0.02737016859223971</v>
       </c>
       <c r="T5">
-        <v>0.1540428176898194</v>
+        <v>0.02737016859223971</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.71643897282371</v>
+        <v>0.48067</v>
       </c>
       <c r="H6">
-        <v>1.71643897282371</v>
+        <v>1.44201</v>
       </c>
       <c r="I6">
-        <v>0.3618053471636949</v>
+        <v>0.06502083335118163</v>
       </c>
       <c r="J6">
-        <v>0.3618053471636949</v>
+        <v>0.06502083335118163</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.481834128240151</v>
+        <v>0.4983106666666666</v>
       </c>
       <c r="N6">
-        <v>0.481834128240151</v>
+        <v>1.494932</v>
       </c>
       <c r="O6">
-        <v>0.3895684956290967</v>
+        <v>0.3834235509713624</v>
       </c>
       <c r="P6">
-        <v>0.3895684956290967</v>
+        <v>0.3834235509713624</v>
       </c>
       <c r="Q6">
-        <v>0.8270388761479325</v>
+        <v>0.2395229881466666</v>
       </c>
       <c r="R6">
-        <v>0.8270388761479325</v>
+        <v>2.15570689332</v>
       </c>
       <c r="S6">
-        <v>0.1409479648051237</v>
+        <v>0.02493051881062725</v>
       </c>
       <c r="T6">
-        <v>0.1409479648051237</v>
+        <v>0.02493051881062725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.48067</v>
+      </c>
+      <c r="H7">
+        <v>1.44201</v>
+      </c>
+      <c r="I7">
+        <v>0.06502083335118163</v>
+      </c>
+      <c r="J7">
+        <v>0.06502083335118163</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.25425</v>
+      </c>
+      <c r="N7">
+        <v>0.76275</v>
+      </c>
+      <c r="O7">
+        <v>0.1956318504810966</v>
+      </c>
+      <c r="P7">
+        <v>0.1956318504810966</v>
+      </c>
+      <c r="Q7">
+        <v>0.1222103475</v>
+      </c>
+      <c r="R7">
+        <v>1.0998931275</v>
+      </c>
+      <c r="S7">
+        <v>0.01272014594831467</v>
+      </c>
+      <c r="T7">
+        <v>0.01272014594831467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.985141</v>
+      </c>
+      <c r="H8">
+        <v>5.955423</v>
+      </c>
+      <c r="I8">
+        <v>0.2685325111606675</v>
+      </c>
+      <c r="J8">
+        <v>0.2685325111606675</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5470743333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.641223</v>
+      </c>
+      <c r="O8">
+        <v>0.4209445985475409</v>
+      </c>
+      <c r="P8">
+        <v>0.4209445985475409</v>
+      </c>
+      <c r="Q8">
+        <v>1.086019689147667</v>
+      </c>
+      <c r="R8">
+        <v>9.774177202329</v>
+      </c>
+      <c r="S8">
+        <v>0.1130373101074902</v>
+      </c>
+      <c r="T8">
+        <v>0.1130373101074902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.71643897282371</v>
-      </c>
-      <c r="H7">
-        <v>1.71643897282371</v>
-      </c>
-      <c r="I7">
-        <v>0.3618053471636949</v>
-      </c>
-      <c r="J7">
-        <v>0.3618053471636949</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.228407253452892</v>
-      </c>
-      <c r="N7">
-        <v>0.228407253452892</v>
-      </c>
-      <c r="O7">
-        <v>0.1846699204213868</v>
-      </c>
-      <c r="P7">
-        <v>0.1846699204213868</v>
-      </c>
-      <c r="Q7">
-        <v>0.3920471115021668</v>
-      </c>
-      <c r="R7">
-        <v>0.3920471115021668</v>
-      </c>
-      <c r="S7">
-        <v>0.06681456466875176</v>
-      </c>
-      <c r="T7">
-        <v>0.06681456466875176</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.985141</v>
+      </c>
+      <c r="H9">
+        <v>5.955423</v>
+      </c>
+      <c r="I9">
+        <v>0.2685325111606675</v>
+      </c>
+      <c r="J9">
+        <v>0.2685325111606675</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4983106666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.494932</v>
+      </c>
+      <c r="O9">
+        <v>0.3834235509713624</v>
+      </c>
+      <c r="P9">
+        <v>0.3834235509713624</v>
+      </c>
+      <c r="Q9">
+        <v>0.9892169351373331</v>
+      </c>
+      <c r="R9">
+        <v>8.902952416235999</v>
+      </c>
+      <c r="S9">
+        <v>0.1029616889804801</v>
+      </c>
+      <c r="T9">
+        <v>0.1029616889804801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.985141</v>
+      </c>
+      <c r="H10">
+        <v>5.955423</v>
+      </c>
+      <c r="I10">
+        <v>0.2685325111606675</v>
+      </c>
+      <c r="J10">
+        <v>0.2685325111606675</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.25425</v>
+      </c>
+      <c r="N10">
+        <v>0.76275</v>
+      </c>
+      <c r="O10">
+        <v>0.1956318504810966</v>
+      </c>
+      <c r="P10">
+        <v>0.1956318504810966</v>
+      </c>
+      <c r="Q10">
+        <v>0.50472209925</v>
+      </c>
+      <c r="R10">
+        <v>4.54249889325</v>
+      </c>
+      <c r="S10">
+        <v>0.05253351207269711</v>
+      </c>
+      <c r="T10">
+        <v>0.05253351207269711</v>
       </c>
     </row>
   </sheetData>
